--- a/outcome/appendix/data/forecast/HFRS.xlsx
+++ b/outcome/appendix/data/forecast/HFRS.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">流行性出血热</t>
+    <t xml:space="preserve">HFRS</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -427,20 +427,12 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1015.03447182505</v>
-      </c>
-      <c r="C2" t="n">
-        <v>822.41500427047</v>
-      </c>
-      <c r="D2" t="n">
-        <v>720.448417484094</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1207.65393937963</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1309.62052616601</v>
-      </c>
+        <v>984.387178351492</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -448,7 +440,7 @@
         <v>684</v>
       </c>
       <c r="I2" t="n">
-        <v>331.034471825051</v>
+        <v>300.387178351492</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,20 +451,12 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>695.211417201164</v>
-      </c>
-      <c r="C3" t="n">
-        <v>414.8160066342</v>
-      </c>
-      <c r="D3" t="n">
-        <v>266.383642403019</v>
-      </c>
-      <c r="E3" t="n">
-        <v>975.606827768128</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1124.03919199931</v>
-      </c>
+        <v>670.685558979639</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -480,7 +464,7 @@
         <v>374</v>
       </c>
       <c r="I3" t="n">
-        <v>321.211417201164</v>
+        <v>296.685558979639</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,20 +475,12 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>724.900381486389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>417.070937735936</v>
-      </c>
-      <c r="D4" t="n">
-        <v>254.115873587562</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1032.72982523684</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1195.68488938522</v>
-      </c>
+        <v>723.782224351174</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -512,7 +488,7 @@
         <v>433</v>
       </c>
       <c r="I4" t="n">
-        <v>291.900381486389</v>
+        <v>290.782224351174</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,20 +499,12 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>690.458187777126</v>
-      </c>
-      <c r="C5" t="n">
-        <v>378.865649579923</v>
-      </c>
-      <c r="D5" t="n">
-        <v>213.918523562823</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1002.05072597433</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1166.99785199143</v>
-      </c>
+        <v>734.027201337685</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -544,7 +512,7 @@
         <v>540</v>
       </c>
       <c r="I5" t="n">
-        <v>150.458187777126</v>
+        <v>194.027201337685</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,20 +523,12 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>966.05944558241</v>
-      </c>
-      <c r="C6" t="n">
-        <v>653.121084008925</v>
-      </c>
-      <c r="D6" t="n">
-        <v>487.461522131426</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1278.9978071559</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1444.65736903339</v>
-      </c>
+        <v>892.119436803324</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -576,7 +536,7 @@
         <v>686</v>
       </c>
       <c r="I6" t="n">
-        <v>280.05944558241</v>
+        <v>206.119436803324</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,20 +547,12 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>984.180814822942</v>
-      </c>
-      <c r="C7" t="n">
-        <v>668.244623293913</v>
-      </c>
-      <c r="D7" t="n">
-        <v>500.998106098691</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1300.11700635197</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1467.36352354719</v>
-      </c>
+        <v>935.819289865634</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -608,7 +560,7 @@
         <v>826</v>
       </c>
       <c r="I7" t="n">
-        <v>158.180814822942</v>
+        <v>109.819289865634</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,20 +571,12 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>681.00053668715</v>
-      </c>
-      <c r="C8" t="n">
-        <v>360.620302892919</v>
-      </c>
-      <c r="D8" t="n">
-        <v>191.021251828354</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1001.38077048138</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1170.97982154595</v>
-      </c>
+        <v>736.597912602936</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -640,7 +584,7 @@
         <v>313</v>
       </c>
       <c r="I8" t="n">
-        <v>368.00053668715</v>
+        <v>423.597912602936</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,31 +595,23 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>414.374079948202</v>
-      </c>
-      <c r="C9" t="n">
-        <v>90.9136412325604</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-80.315971822578</v>
-      </c>
-      <c r="E9" t="n">
-        <v>737.834518663844</v>
-      </c>
-      <c r="F9" t="n">
-        <v>909.064131718982</v>
-      </c>
+        <v>470.498061171661</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>503</v>
+        <v>313</v>
       </c>
       <c r="I9" t="n">
-        <v>-88.6259200517979</v>
+        <v>157.498061171661</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,20 +619,12 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>357.147401802646</v>
-      </c>
-      <c r="C10" t="n">
-        <v>32.4221428932572</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-139.477025527662</v>
-      </c>
-      <c r="E10" t="n">
-        <v>681.872660712035</v>
-      </c>
-      <c r="F10" t="n">
-        <v>853.771829132954</v>
-      </c>
+        <v>373.626106467814</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -704,7 +632,7 @@
         <v>320</v>
       </c>
       <c r="I10" t="n">
-        <v>37.1474018026462</v>
+        <v>53.6261064678142</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,20 +643,12 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>835.922606096223</v>
-      </c>
-      <c r="C11" t="n">
-        <v>510.682775167764</v>
-      </c>
-      <c r="D11" t="n">
-        <v>338.51120877427</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1161.16243702468</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1333.33400341818</v>
-      </c>
+        <v>607.330339566573</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -736,10 +656,10 @@
         <v>611</v>
       </c>
       <c r="I11" t="n">
-        <v>224.922606096223</v>
+        <v>-3.669660433427</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -747,20 +667,12 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1781.19882854366</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1455.57920714741</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1283.20659182472</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2106.81844993991</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2279.1910652626</v>
-      </c>
+        <v>1314.38991219811</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -768,7 +680,7 @@
         <v>1796</v>
       </c>
       <c r="I12" t="n">
-        <v>-14.8011714563377</v>
+        <v>-481.610087801893</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,20 +691,12 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1483.13616481269</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1157.1317755488</v>
-      </c>
-      <c r="D13" t="n">
-        <v>984.555476420587</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1809.14055407658</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1981.71685320479</v>
-      </c>
+        <v>1489.99890374604</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -800,7 +704,7 @@
         <v>1460</v>
       </c>
       <c r="I13" t="n">
-        <v>23.1361648126883</v>
+        <v>29.9989037460391</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,20 +715,12 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>995.504103751288</v>
-      </c>
-      <c r="C14" t="n">
-        <v>662.14397494806</v>
-      </c>
-      <c r="D14" t="n">
-        <v>485.673782520081</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1328.86423255452</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1505.3344249825</v>
-      </c>
+        <v>1020.27811919704</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -832,7 +728,7 @@
         <v>562</v>
       </c>
       <c r="I14" t="n">
-        <v>433.504103751288</v>
+        <v>458.27811919704</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,20 +739,12 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>660.449914750979</v>
-      </c>
-      <c r="C15" t="n">
-        <v>319.88588020319</v>
-      </c>
-      <c r="D15" t="n">
-        <v>139.602170431251</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1001.01394929877</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1181.29765907071</v>
-      </c>
+        <v>644.222398942292</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -864,7 +752,7 @@
         <v>365</v>
       </c>
       <c r="I15" t="n">
-        <v>295.449914750979</v>
+        <v>279.222398942292</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,20 +763,12 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>751.206115849826</v>
-      </c>
-      <c r="C16" t="n">
-        <v>407.729544151636</v>
-      </c>
-      <c r="D16" t="n">
-        <v>225.904030345634</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1094.68268754802</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1276.50820135402</v>
-      </c>
+        <v>686.977869919848</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -896,7 +776,7 @@
         <v>424</v>
       </c>
       <c r="I16" t="n">
-        <v>327.206115849826</v>
+        <v>262.977869919848</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,20 +787,12 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>751.017817247184</v>
-      </c>
-      <c r="C17" t="n">
-        <v>406.943923778738</v>
-      </c>
-      <c r="D17" t="n">
-        <v>224.802206927947</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1095.09171071563</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1277.23342756642</v>
-      </c>
+        <v>758.093948646156</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -928,7 +800,7 @@
         <v>510</v>
       </c>
       <c r="I17" t="n">
-        <v>241.017817247184</v>
+        <v>248.093948646156</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,20 +811,12 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1013.80135808027</v>
-      </c>
-      <c r="C18" t="n">
-        <v>669.446988037389</v>
-      </c>
-      <c r="D18" t="n">
-        <v>487.156795856809</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1358.15572812316</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1540.44592030374</v>
-      </c>
+        <v>893.643905023907</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,7 +824,7 @@
         <v>685</v>
       </c>
       <c r="I18" t="n">
-        <v>328.801358080273</v>
+        <v>208.643905023907</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,20 +835,12 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1002.77159974407</v>
-      </c>
-      <c r="C19" t="n">
-        <v>657.979012208265</v>
-      </c>
-      <c r="D19" t="n">
-        <v>475.456841699688</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1347.56418727987</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1530.08635778844</v>
-      </c>
+        <v>884.141227432124</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,7 +848,7 @@
         <v>724</v>
       </c>
       <c r="I19" t="n">
-        <v>278.771599744066</v>
+        <v>160.141227432124</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,20 +859,12 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>684.965081167754</v>
-      </c>
-      <c r="C20" t="n">
-        <v>339.629872667282</v>
-      </c>
-      <c r="D20" t="n">
-        <v>156.820455971243</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1030.30028966823</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1213.10970636426</v>
-      </c>
+        <v>723.30793150093</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +872,7 @@
         <v>467</v>
       </c>
       <c r="I20" t="n">
-        <v>217.965081167754</v>
+        <v>256.30793150093</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,20 +883,12 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>420.798757465723</v>
-      </c>
-      <c r="C21" t="n">
-        <v>75.092792577077</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-107.912890695292</v>
-      </c>
-      <c r="E21" t="n">
-        <v>766.504722354369</v>
-      </c>
-      <c r="F21" t="n">
-        <v>949.510405626737</v>
-      </c>
+        <v>514.677468026042</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +896,7 @@
         <v>255</v>
       </c>
       <c r="I21" t="n">
-        <v>165.798757465723</v>
+        <v>259.677468026042</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,20 +907,12 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>369.87043947023</v>
-      </c>
-      <c r="C22" t="n">
-        <v>23.9970225487695</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-159.097304475206</v>
-      </c>
-      <c r="E22" t="n">
-        <v>715.74385639169</v>
-      </c>
-      <c r="F22" t="n">
-        <v>898.838183415666</v>
-      </c>
+        <v>409.254341213063</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +920,7 @@
         <v>291</v>
       </c>
       <c r="I22" t="n">
-        <v>78.8704394702299</v>
+        <v>118.254341213063</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,20 +931,12 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>849.318443249462</v>
-      </c>
-      <c r="C23" t="n">
-        <v>503.367331953638</v>
-      </c>
-      <c r="D23" t="n">
-        <v>320.231876012286</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1195.26955454529</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1378.40501048664</v>
-      </c>
+        <v>572.546653426169</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,10 +944,10 @@
         <v>678</v>
       </c>
       <c r="I23" t="n">
-        <v>171.318443249462</v>
+        <v>-105.453346573831</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1131,20 +955,12 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1790.35719882914</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1444.35056039087</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1261.18571015588</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2136.3638372674</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2319.52868750239</v>
-      </c>
+        <v>1144.87336815476</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +968,7 @@
         <v>2120</v>
       </c>
       <c r="I24" t="n">
-        <v>-329.642801170864</v>
+        <v>-975.12663184524</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,20 +979,12 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1488.11095474678</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1142.05590833855</v>
-      </c>
-      <c r="D25" t="n">
-        <v>958.865432472186</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1834.16600115502</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2017.35647702138</v>
-      </c>
+        <v>1384.12091174151</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +992,7 @@
         <v>2402</v>
       </c>
       <c r="I25" t="n">
-        <v>-913.889045253218</v>
+        <v>-1017.87908825849</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,20 +1003,12 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>998.953206869197</v>
-      </c>
-      <c r="C26" t="n">
-        <v>647.651676332217</v>
-      </c>
-      <c r="D26" t="n">
-        <v>461.683879533404</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1350.25473740618</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1536.22253420499</v>
-      </c>
+        <v>1014.67513849676</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1016,7 @@
         <v>781</v>
       </c>
       <c r="I26" t="n">
-        <v>217.953206869197</v>
+        <v>233.675138496762</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,20 +1027,12 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>664.140787470714</v>
-      </c>
-      <c r="C27" t="n">
-        <v>307.313556457352</v>
-      </c>
-      <c r="D27" t="n">
-        <v>118.420630520069</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1020.96801848408</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1209.86094442136</v>
-      </c>
+        <v>611.536195925039</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1040,7 @@
         <v>330</v>
       </c>
       <c r="I27" t="n">
-        <v>334.140787470714</v>
+        <v>281.536195925039</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,20 +1051,12 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>755.067005935924</v>
-      </c>
-      <c r="C28" t="n">
-        <v>396.057223501053</v>
-      </c>
-      <c r="D28" t="n">
-        <v>206.00892463204</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1114.0767883708</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1304.12508723981</v>
-      </c>
+        <v>638.980853578558</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1064,7 @@
         <v>344</v>
       </c>
       <c r="I28" t="n">
-        <v>411.067005935924</v>
+        <v>294.980853578558</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,20 +1075,12 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>754.272500112069</v>
-      </c>
-      <c r="C29" t="n">
-        <v>394.891712736885</v>
-      </c>
-      <c r="D29" t="n">
-        <v>204.647015715988</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1113.65328748725</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1303.89798450815</v>
-      </c>
+        <v>751.998242519502</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1088,7 @@
         <v>333</v>
       </c>
       <c r="I29" t="n">
-        <v>421.272500112069</v>
+        <v>418.998242519502</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,20 +1099,12 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1016.12171305131</v>
-      </c>
-      <c r="C30" t="n">
-        <v>656.588999357481</v>
-      </c>
-      <c r="D30" t="n">
-        <v>466.2638774016</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1375.65442674513</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1565.97954870101</v>
-      </c>
+        <v>913.473181209396</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1112,7 @@
         <v>553</v>
       </c>
       <c r="I30" t="n">
-        <v>463.121713051305</v>
+        <v>360.473181209396</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,20 +1123,12 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1004.42436341871</v>
-      </c>
-      <c r="C31" t="n">
-        <v>644.607513741804</v>
-      </c>
-      <c r="D31" t="n">
-        <v>454.131979282211</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1364.24121309562</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1554.71674755521</v>
-      </c>
+        <v>864.037892364516</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1136,7 @@
         <v>566</v>
       </c>
       <c r="I31" t="n">
-        <v>438.424363418713</v>
+        <v>298.037892364516</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,20 +1147,12 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>686.342287945621</v>
-      </c>
-      <c r="C32" t="n">
-        <v>326.134896294964</v>
-      </c>
-      <c r="D32" t="n">
-        <v>135.452621402717</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1046.54967959628</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1237.23195448853</v>
-      </c>
+        <v>691.092839326516</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1160,7 @@
         <v>404</v>
       </c>
       <c r="I32" t="n">
-        <v>282.342287945621</v>
+        <v>287.092839326516</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,20 +1171,12 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>422.065549383953</v>
-      </c>
-      <c r="C33" t="n">
-        <v>61.5871106245239</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-129.238647939911</v>
-      </c>
-      <c r="E33" t="n">
-        <v>782.543988143381</v>
-      </c>
-      <c r="F33" t="n">
-        <v>973.369746707817</v>
-      </c>
+        <v>533.70437765876</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1184,7 @@
         <v>235</v>
       </c>
       <c r="I33" t="n">
-        <v>187.065549383953</v>
+        <v>298.70437765876</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,20 +1195,12 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>370.983533554974</v>
-      </c>
-      <c r="C34" t="n">
-        <v>10.3883968262789</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-180.499137911469</v>
-      </c>
-      <c r="E34" t="n">
-        <v>731.578670283668</v>
-      </c>
-      <c r="F34" t="n">
-        <v>922.466205021416</v>
-      </c>
+        <v>445.666442970245</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1208,7 @@
         <v>205</v>
       </c>
       <c r="I34" t="n">
-        <v>165.983533554974</v>
+        <v>240.666442970245</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,20 +1219,12 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>850.21072751912</v>
-      </c>
-      <c r="C35" t="n">
-        <v>489.565213859849</v>
-      </c>
-      <c r="D35" t="n">
-        <v>298.651011185942</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1210.85624117839</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1401.7704438523</v>
-      </c>
+        <v>555.866898367509</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1232,7 @@
         <v>400</v>
       </c>
       <c r="I35" t="n">
-        <v>450.21072751912</v>
+        <v>155.866898367509</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,20 +1243,12 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1791.04168549239</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1430.36052773857</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1239.42745622079</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2151.7228432462</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2342.65591476398</v>
-      </c>
+        <v>1004.84256272602</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1256,7 @@
         <v>895</v>
       </c>
       <c r="I36" t="n">
-        <v>896.041685492385</v>
+        <v>109.842562726017</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,20 +1267,12 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1488.6548435406</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1127.94172593852</v>
-      </c>
-      <c r="D37" t="n">
-        <v>936.991735899046</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1849.36796114267</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2040.31795118215</v>
-      </c>
+        <v>1262.08673409514</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1280,7 @@
         <v>512</v>
       </c>
       <c r="I37" t="n">
-        <v>976.654843540598</v>
+        <v>750.086734095139</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,20 +1291,12 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>999.41261431188</v>
-      </c>
-      <c r="C38" t="n">
-        <v>633.788645605247</v>
-      </c>
-      <c r="D38" t="n">
-        <v>440.239008023885</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1365.03658301851</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1558.58622059987</v>
-      </c>
+        <v>986.358117576916</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1304,7 @@
         <v>217</v>
       </c>
       <c r="I38" t="n">
-        <v>782.41261431188</v>
+        <v>769.358117576916</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,20 +1315,12 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>664.534834145822</v>
-      </c>
-      <c r="C39" t="n">
-        <v>293.701300863755</v>
-      </c>
-      <c r="D39" t="n">
-        <v>97.3938863808986</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1035.36836742789</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1231.67578191075</v>
-      </c>
+        <v>582.320760775573</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1328,7 @@
         <v>270</v>
       </c>
       <c r="I39" t="n">
-        <v>394.534834145822</v>
+        <v>312.320760775573</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,20 +1339,12 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>755.394673074761</v>
-      </c>
-      <c r="C40" t="n">
-        <v>382.512884212143</v>
-      </c>
-      <c r="D40" t="n">
-        <v>185.121188721419</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1128.27646193738</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1325.6681574281</v>
-      </c>
+        <v>586.510155866511</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1664,9 +1352,225 @@
         <v>330</v>
       </c>
       <c r="I40" t="n">
-        <v>425.394673074761</v>
+        <v>256.510155866511</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>725.774830984829</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>305</v>
+      </c>
+      <c r="I41" t="n">
+        <v>420.774830984829</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>934.006786732361</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>399</v>
+      </c>
+      <c r="I42" t="n">
+        <v>535.006786732361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>876.207961863502</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>365</v>
+      </c>
+      <c r="I43" t="n">
+        <v>511.207961863502</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>660.847087718622</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>344</v>
+      </c>
+      <c r="I44" t="n">
+        <v>316.847087718622</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>529.311651309547</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>240</v>
+      </c>
+      <c r="I45" t="n">
+        <v>289.311651309547</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>474.629299096906</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>198</v>
+      </c>
+      <c r="I46" t="n">
+        <v>276.629299096906</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>559.7488663353</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>439</v>
+      </c>
+      <c r="I47" t="n">
+        <v>120.7488663353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>900.278129073041</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1320</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-419.721870926959</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1135.83443271352</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1122</v>
+      </c>
+      <c r="I49" t="n">
+        <v>13.8344327135223</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>
